--- a/实验结果.xlsx
+++ b/实验结果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D73D59D-419B-42E0-9E26-F55BBAE6BFFD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E210D33F-0C52-45DA-8B80-987C8537D14F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APPbasic" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="deepwalk_basic" sheetId="4" r:id="rId4"/>
     <sheet name="deepwalk_classify" sheetId="5" r:id="rId5"/>
     <sheet name="deepwalk_link" sheetId="6" r:id="rId6"/>
+    <sheet name="LINE_basic" sheetId="7" r:id="rId7"/>
+    <sheet name="LINE_classify" sheetId="9" r:id="rId8"/>
+    <sheet name="LINE_link" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="19">
   <si>
     <t>jump_factor</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +256,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -280,7 +294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -290,21 +303,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -314,10 +321,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -633,7 +636,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
@@ -645,7 +648,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="3">
         <v>0.15</v>
       </c>
@@ -655,7 +658,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="3">
         <v>0.2</v>
       </c>
@@ -665,7 +668,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="3">
         <v>0.25</v>
       </c>
@@ -681,7 +684,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="4">
         <v>0.3</v>
       </c>
@@ -697,7 +700,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B7">
@@ -714,7 +717,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="31"/>
       <c r="B8">
         <v>0.15</v>
       </c>
@@ -729,7 +732,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="31"/>
       <c r="B9">
         <v>0.2</v>
       </c>
@@ -744,7 +747,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="31"/>
       <c r="B10">
         <v>0.25</v>
       </c>
@@ -759,7 +762,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="31"/>
       <c r="B11">
         <v>0.3</v>
       </c>
@@ -774,7 +777,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
@@ -786,7 +789,7 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3">
         <v>0.15</v>
       </c>
@@ -796,7 +799,7 @@
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3">
         <v>0.2</v>
       </c>
@@ -806,7 +809,7 @@
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3">
         <v>0.25</v>
       </c>
@@ -816,7 +819,7 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="4">
         <v>0.3</v>
       </c>
@@ -826,7 +829,7 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B17">
@@ -846,7 +849,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="31"/>
       <c r="B18">
         <v>0.15</v>
       </c>
@@ -864,7 +867,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="31"/>
       <c r="B19">
         <v>0.2</v>
       </c>
@@ -882,7 +885,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="31"/>
       <c r="B20">
         <v>0.25</v>
       </c>
@@ -900,7 +903,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="31"/>
       <c r="B21">
         <v>0.3</v>
       </c>
@@ -941,28 +944,28 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="20" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1027,7 +1030,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
@@ -1053,7 +1056,7 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="3">
         <v>0.15</v>
       </c>
@@ -1077,7 +1080,7 @@
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="3">
         <v>0.2</v>
       </c>
@@ -1101,7 +1104,7 @@
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="3">
         <v>0.25</v>
       </c>
@@ -1125,7 +1128,7 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="4">
         <v>0.3</v>
       </c>
@@ -1185,7 +1188,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B8">
@@ -1247,7 +1250,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="31"/>
       <c r="B9">
         <v>0.15</v>
       </c>
@@ -1307,7 +1310,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="31"/>
       <c r="B10">
         <v>0.2</v>
       </c>
@@ -1367,7 +1370,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="31"/>
       <c r="B11">
         <v>0.25</v>
       </c>
@@ -1427,7 +1430,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="31"/>
       <c r="B12">
         <v>0.3</v>
       </c>
@@ -1487,7 +1490,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2">
@@ -1513,7 +1516,7 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3">
         <v>0.15</v>
       </c>
@@ -1537,7 +1540,7 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3">
         <v>0.2</v>
       </c>
@@ -1561,7 +1564,7 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3">
         <v>0.25</v>
       </c>
@@ -1585,7 +1588,7 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="4">
         <v>0.3</v>
       </c>
@@ -1609,7 +1612,7 @@
       <c r="T17" s="4"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B18">
@@ -1671,7 +1674,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="31"/>
       <c r="B19">
         <v>0.15</v>
       </c>
@@ -1731,7 +1734,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="31"/>
       <c r="B20">
         <v>0.2</v>
       </c>
@@ -1791,7 +1794,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="31"/>
       <c r="B21">
         <v>0.25</v>
       </c>
@@ -1851,7 +1854,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="31"/>
       <c r="B22">
         <v>0.3</v>
       </c>
@@ -1938,41 +1941,41 @@
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="31">
         <v>0.1</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="25">
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="36">
         <v>0.3</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="36">
         <v>0.5</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="25">
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="36">
         <v>0.7</v>
       </c>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="20">
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="31">
         <v>0.9</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2058,7 +2061,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
@@ -2141,7 +2144,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="3">
         <v>0.15</v>
       </c>
@@ -2222,7 +2225,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="3">
         <v>0.2</v>
       </c>
@@ -2303,7 +2306,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="3">
         <v>0.25</v>
       </c>
@@ -2384,7 +2387,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="4">
         <v>0.3</v>
       </c>
@@ -2465,7 +2468,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B8">
@@ -2548,7 +2551,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="31"/>
       <c r="B9">
         <v>0.15</v>
       </c>
@@ -2629,7 +2632,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="31"/>
       <c r="B10">
         <v>0.2</v>
       </c>
@@ -2710,7 +2713,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="31"/>
       <c r="B11">
         <v>0.25</v>
       </c>
@@ -2791,7 +2794,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="31"/>
       <c r="B12">
         <v>0.3</v>
       </c>
@@ -2872,7 +2875,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="2">
@@ -2905,7 +2908,7 @@
       <c r="AA13" s="2"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3">
         <v>0.15</v>
       </c>
@@ -2936,7 +2939,7 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3">
         <v>0.2</v>
       </c>
@@ -2967,7 +2970,7 @@
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="3">
         <v>0.25</v>
       </c>
@@ -2998,7 +3001,7 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="4">
         <v>0.3</v>
       </c>
@@ -3029,7 +3032,7 @@
       <c r="AA17" s="4"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B18">
@@ -3112,7 +3115,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="31"/>
       <c r="B19">
         <v>0.15</v>
       </c>
@@ -3193,7 +3196,7 @@
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="31"/>
       <c r="B20">
         <v>0.2</v>
       </c>
@@ -3274,7 +3277,7 @@
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="31"/>
       <c r="B21">
         <v>0.25</v>
       </c>
@@ -3355,7 +3358,7 @@
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="31"/>
       <c r="B22">
         <v>0.3</v>
       </c>
@@ -3437,15 +3440,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:AA1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3457,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E47047-DADA-42EF-B176-045D48503336}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3489,7 +3492,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2">
@@ -3501,7 +3504,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="3">
         <v>4</v>
       </c>
@@ -3511,7 +3514,7 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="3">
         <v>6</v>
       </c>
@@ -3521,7 +3524,7 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="3">
         <v>8</v>
       </c>
@@ -3531,7 +3534,7 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="4">
         <v>10</v>
       </c>
@@ -3541,7 +3544,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="2">
@@ -3558,7 +3561,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="3">
         <v>4</v>
       </c>
@@ -3573,7 +3576,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -3588,7 +3591,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="3">
         <v>8</v>
       </c>
@@ -3598,16 +3601,16 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="17">
         <v>2.4671399322140099E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="17">
         <v>5.5162987337678798E-2</v>
       </c>
       <c r="D11">
@@ -3618,7 +3621,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
@@ -3638,7 +3641,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="3">
         <v>4</v>
       </c>
@@ -3656,7 +3659,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="3">
         <v>6</v>
       </c>
@@ -3674,7 +3677,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="3">
         <v>8</v>
       </c>
@@ -3692,7 +3695,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="4">
         <v>10</v>
       </c>
@@ -3710,7 +3713,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="2">
@@ -3730,7 +3733,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="3">
         <v>4</v>
       </c>
@@ -3748,7 +3751,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="3">
         <v>6</v>
       </c>
@@ -3766,38 +3769,38 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="3">
         <v>8</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="17">
         <v>0.28051666733523201</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="17">
         <v>11</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="17">
         <v>0.34985579672850298</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="17">
         <v>0.50181905004872296</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="3">
         <v>10</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="17">
         <v>0.25099281960768499</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="17">
         <v>11</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="17">
         <v>0.31238898261668402</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="17">
         <v>0.45817774967383701</v>
       </c>
     </row>
@@ -3819,226 +3822,226 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="18">
         <v>0.1</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="18">
         <v>0.2</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="18">
         <v>0.3</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="18">
         <v>0.4</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="18">
         <v>0.5</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="18">
         <v>0.6</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="18">
         <v>0.7</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="18">
         <v>0.8</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="19">
         <v>0.9</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="17">
         <v>0.1</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="17">
         <v>0.2</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="17">
         <v>0.3</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="17">
         <v>0.4</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="17">
         <v>0.5</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="17">
         <v>0.6</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="17">
         <v>0.7</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="17">
         <v>0.8</v>
       </c>
-      <c r="T2" s="26">
+      <c r="T2" s="17">
         <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="20">
         <v>2</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="30">
+      <c r="A4" s="41"/>
+      <c r="B4" s="18">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="30">
+      <c r="A5" s="41"/>
+      <c r="B5" s="18">
         <v>6</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="30">
+      <c r="A6" s="41"/>
+      <c r="B6" s="18">
         <v>8</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37">
+      <c r="A7" s="42"/>
+      <c r="B7" s="22">
         <v>10</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="20">
         <v>2</v>
       </c>
       <c r="C8" s="8">
@@ -4097,379 +4100,379 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30">
+      <c r="A9" s="39"/>
+      <c r="B9" s="18">
         <v>4</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="18">
         <v>0.15351430716173101</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="18">
         <v>0.17402383358023901</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="18">
         <v>0.18836494837897999</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="18">
         <v>0.19950915539530201</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="18">
         <v>0.21136169661262899</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="18">
         <v>0.210801884141195</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="18">
         <v>0.22198536593606699</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="18">
         <v>0.22535134753340499</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="19">
         <v>0.22034722237262799</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="17">
         <v>7.7064902580980393E-2</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="17">
         <v>8.4041016651628803E-2</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="17">
         <v>8.8877667625688106E-2</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="17">
         <v>9.2627924750690593E-2</v>
       </c>
-      <c r="P9" s="26">
+      <c r="P9" s="17">
         <v>9.5283434243697299E-2</v>
       </c>
-      <c r="Q9" s="26">
+      <c r="Q9" s="17">
         <v>9.5552120625720605E-2</v>
       </c>
-      <c r="R9" s="26">
+      <c r="R9" s="17">
         <v>9.7006613537956699E-2</v>
       </c>
-      <c r="S9" s="26">
+      <c r="S9" s="17">
         <v>9.8219525332135293E-2</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="17">
         <v>9.4736506878169799E-2</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30">
+      <c r="A10" s="39"/>
+      <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="18">
         <v>0.12499843982881199</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="18">
         <v>0.13610691439531</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="18">
         <v>0.14766326931770801</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="18">
         <v>0.157855448091477</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="18">
         <v>0.165467568635845</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="18">
         <v>0.17133104703904201</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="18">
         <v>0.171267126514693</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="18">
         <v>0.18117954832138999</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="19">
         <v>0.17515046880208199</v>
       </c>
-      <c r="L10" s="26">
+      <c r="L10" s="17">
         <v>6.0284913481028303E-2</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="17">
         <v>6.4011162704313798E-2</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="17">
         <v>6.4822522238387595E-2</v>
       </c>
-      <c r="O10" s="26">
+      <c r="O10" s="17">
         <v>6.7365424914363703E-2</v>
       </c>
-      <c r="P10" s="26">
+      <c r="P10" s="17">
         <v>6.7332581289341401E-2</v>
       </c>
-      <c r="Q10" s="26">
+      <c r="Q10" s="17">
         <v>6.8354709587982093E-2</v>
       </c>
-      <c r="R10" s="26">
+      <c r="R10" s="17">
         <v>6.1828911769249498E-2</v>
       </c>
-      <c r="S10" s="26">
+      <c r="S10" s="17">
         <v>6.4661144391298206E-2</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="17">
         <v>6.3129334901563305E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30">
+      <c r="A11" s="39"/>
+      <c r="B11" s="18">
         <v>8</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="18">
         <v>0.119699401702651</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="18">
         <v>0.13270512107018401</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="18">
         <v>0.14473939196420799</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="18">
         <v>0.15106481512075501</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="18">
         <v>0.159081561314874</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="18">
         <v>0.16495855456913999</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="18">
         <v>0.166409076563066</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="18">
         <v>0.170850140319984</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="19">
         <v>0.16753951713172899</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="17">
         <v>5.5919532374915898E-2</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="17">
         <v>6.2275742995138002E-2</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="17">
         <v>6.3101187055239399E-2</v>
       </c>
-      <c r="O11" s="26">
+      <c r="O11" s="17">
         <v>5.9976792753999503E-2</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="17">
         <v>6.0386203478186899E-2</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="17">
         <v>5.7717633772317298E-2</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="17">
         <v>5.69629550647077E-2</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="17">
         <v>5.8562993136271703E-2</v>
       </c>
-      <c r="T11" s="26">
+      <c r="T11" s="17">
         <v>5.4837645790562002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="37">
+      <c r="A12" s="39"/>
+      <c r="B12" s="22">
         <v>10</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="18">
         <v>0.107490820621459</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="18">
         <v>0.115498447220862</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="18">
         <v>0.12810721321590701</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="18">
         <v>0.13484925832915601</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="18">
         <v>0.141976103221993</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="18">
         <v>0.14762502158385299</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="18">
         <v>0.153523726004438</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="18">
         <v>0.15642279058061401</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="19">
         <v>0.15728673863120099</v>
       </c>
-      <c r="L12" s="26">
+      <c r="L12" s="17">
         <v>4.9475302981491401E-2</v>
       </c>
-      <c r="M12" s="26">
+      <c r="M12" s="17">
         <v>5.2168645471198198E-2</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="17">
         <v>5.3662898788973498E-2</v>
       </c>
-      <c r="O12" s="26">
+      <c r="O12" s="17">
         <v>5.2608651728059098E-2</v>
       </c>
-      <c r="P12" s="26">
+      <c r="P12" s="17">
         <v>5.1738897718885901E-2</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="17">
         <v>5.1467872102769603E-2</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="17">
         <v>5.1033217103936601E-2</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="17">
         <v>4.7649710459303399E-2</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="17">
         <v>4.5252308014986503E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="20">
         <v>2</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="20">
         <v>0.56432722396066104</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="20">
         <v>0.59959758551307796</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="20">
         <v>0.63770114942528699</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="20">
         <v>0.65070422535211203</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="20">
         <v>0.66757843925985505</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="20">
         <v>0.68430583501006004</v>
       </c>
-      <c r="I13" s="33">
+      <c r="I13" s="20">
         <v>0.68686327077748</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="20">
         <v>0.68692152917505001</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="21">
         <v>0.67550200803212801</v>
       </c>
-      <c r="L13" s="33">
+      <c r="L13" s="20">
         <v>0.53649256704315695</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="20">
         <v>0.58391752141994202</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="20">
         <v>0.62033465216573602</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="20">
         <v>0.63541940442355005</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="20">
         <v>0.650613640920087</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="20">
         <v>0.66886774096223001</v>
       </c>
-      <c r="R13" s="33">
+      <c r="R13" s="20">
         <v>0.66951925264370704</v>
       </c>
-      <c r="S13" s="33">
+      <c r="S13" s="20">
         <v>0.67364393811891798</v>
       </c>
-      <c r="T13" s="33">
+      <c r="T13" s="20">
         <v>0.65285777738645001</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="30">
+      <c r="A14" s="37"/>
+      <c r="B14" s="18">
         <v>4</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="18">
         <v>0.687259722843093</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="18">
         <v>0.71559356136820895</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="18">
         <v>0.73632183908045901</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="18">
         <v>0.74808853118712204</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="18">
         <v>0.74979887369267895</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="18">
         <v>0.75010060362173003</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="18">
         <v>0.76193029490616604</v>
       </c>
       <c r="J14" s="8">
         <v>0.77585513078470802</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="19">
         <v>0.76465863453815197</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="18">
         <v>0.65944638068807104</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="18">
         <v>0.684991264566291</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="18">
         <v>0.713047191902898</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="18">
         <v>0.727647793362312</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="18">
         <v>0.725855773257993</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="18">
         <v>0.72500986430037795</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="18">
         <v>0.74474479614314604</v>
       </c>
       <c r="S14" s="8">
         <v>0.75221438080913405</v>
       </c>
-      <c r="T14" s="30">
+      <c r="T14" s="18">
         <v>0.74711208965988996</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="30">
+      <c r="A15" s="37"/>
+      <c r="B15" s="18">
         <v>6</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="18">
         <v>0.68663388466696396</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="18">
         <v>0.72102615694164895</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="18">
         <v>0.73793103448275799</v>
       </c>
       <c r="F15" s="8">
@@ -4484,19 +4487,19 @@
       <c r="I15" s="8">
         <v>0.77399463806970503</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="18">
         <v>0.76780684104627706</v>
       </c>
       <c r="K15" s="9">
         <v>0.78072289156626495</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="18">
         <v>0.65987546425866594</v>
       </c>
-      <c r="M15" s="30">
+      <c r="M15" s="18">
         <v>0.69446798266322995</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="18">
         <v>0.71537682645682499</v>
       </c>
       <c r="O15" s="8">
@@ -4511,7 +4514,7 @@
       <c r="R15" s="8">
         <v>0.75538106658674697</v>
       </c>
-      <c r="S15" s="30">
+      <c r="S15" s="18">
         <v>0.74681449529740496</v>
       </c>
       <c r="T15" s="8">
@@ -4519,8 +4522,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="30">
+      <c r="A16" s="37"/>
+      <c r="B16" s="18">
         <v>8</v>
       </c>
       <c r="C16" s="8">
@@ -4529,25 +4532,25 @@
       <c r="D16" s="8">
         <v>0.72635814889336003</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="18">
         <v>0.74114942528735595</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="18">
         <v>0.75023474178403704</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="18">
         <v>0.75446500402252603</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="18">
         <v>0.76177062374245397</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="18">
         <v>0.76648793565683604</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="18">
         <v>0.76579476861166995</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="19">
         <v>0.77831325301204801</v>
       </c>
       <c r="L16" s="8">
@@ -4556,93 +4559,93 @@
       <c r="M16" s="8">
         <v>0.70361840265111597</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="18">
         <v>0.71903967785113498</v>
       </c>
-      <c r="O16" s="30">
+      <c r="O16" s="18">
         <v>0.72908476326956095</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="18">
         <v>0.73333490316620997</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="Q16" s="18">
         <v>0.74453157607179798</v>
       </c>
-      <c r="R16" s="30">
+      <c r="R16" s="18">
         <v>0.75416962203069204</v>
       </c>
-      <c r="S16" s="30">
+      <c r="S16" s="18">
         <v>0.74465688260279195</v>
       </c>
-      <c r="T16" s="30">
+      <c r="T16" s="18">
         <v>0.75273406648150198</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37">
+      <c r="A17" s="44"/>
+      <c r="B17" s="22">
         <v>10</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="22">
         <v>0.70227983907018299</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="22">
         <v>0.72404426559356105</v>
       </c>
       <c r="E17" s="11">
         <v>0.74241379310344802</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="22">
         <v>0.74460093896713597</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="22">
         <v>0.75446500402252603</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="22">
         <v>0.76659959758551299</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="22">
         <v>0.76487935656836403</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="22">
         <v>0.753722334004024</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="23">
         <v>0.76385542168674703</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="22">
         <v>0.674308913806412</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="22">
         <v>0.69696475215120601</v>
       </c>
       <c r="N17" s="11">
         <v>0.72256532032389698</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="22">
         <v>0.72151757542293204</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="22">
         <v>0.73089894858190796</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="22">
         <v>0.745809791798554</v>
       </c>
-      <c r="R17" s="37">
+      <c r="R17" s="22">
         <v>0.74857147993865403</v>
       </c>
-      <c r="S17" s="37">
+      <c r="S17" s="22">
         <v>0.73167562752940596</v>
       </c>
-      <c r="T17" s="37">
+      <c r="T17" s="22">
         <v>0.727289779046842</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="20">
         <v>2</v>
       </c>
       <c r="C18" s="8">
@@ -4701,253 +4704,253 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30">
+      <c r="A19" s="39"/>
+      <c r="B19" s="18">
         <v>4</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="18">
         <v>0.43828828828828797</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="18">
         <v>0.51913814955640003</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="18">
         <v>0.55079594790159103</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="18">
         <v>0.57027027027027</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="18">
         <v>0.57363083164300099</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="18">
         <v>0.59746835443037905</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="18">
         <v>0.59797297297297303</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="18">
         <v>0.60101010101010099</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="19">
         <v>0.59595959595959502</v>
       </c>
-      <c r="L19" s="26">
+      <c r="L19" s="17">
         <v>0.20463548367232001</v>
       </c>
-      <c r="M19" s="26">
+      <c r="M19" s="17">
         <v>0.26349070949714798</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="17">
         <v>0.31422777546795</v>
       </c>
-      <c r="O19" s="26">
+      <c r="O19" s="17">
         <v>0.33319937973695801</v>
       </c>
-      <c r="P19" s="26">
+      <c r="P19" s="17">
         <v>0.34536339442911801</v>
       </c>
-      <c r="Q19" s="26">
+      <c r="Q19" s="17">
         <v>0.35994625332218599</v>
       </c>
-      <c r="R19" s="26">
+      <c r="R19" s="17">
         <v>0.35156223209790599</v>
       </c>
-      <c r="S19" s="26">
+      <c r="S19" s="17">
         <v>0.359606963639647</v>
       </c>
-      <c r="T19" s="26">
+      <c r="T19" s="17">
         <v>0.30905234354814098</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30">
+      <c r="A20" s="39"/>
+      <c r="B20" s="18">
         <v>6</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C20" s="18">
         <v>0.412162162162162</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="18">
         <v>0.49150823827629903</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="18">
         <v>0.50159189580318297</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="18">
         <v>0.52027027027026995</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="18">
         <v>0.53711967545638895</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="18">
         <v>0.54734177215189805</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="18">
         <v>0.536486486486486</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="18">
         <v>0.57979797979797898</v>
       </c>
-      <c r="K20" s="31">
+      <c r="K20" s="19">
         <v>0.56969696969696904</v>
       </c>
-      <c r="L20" s="26">
+      <c r="L20" s="17">
         <v>0.18008537919096201</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="17">
         <v>0.24971038557574299</v>
       </c>
-      <c r="N20" s="26">
+      <c r="N20" s="17">
         <v>0.255171522886248</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="17">
         <v>0.29242731276248202</v>
       </c>
-      <c r="P20" s="26">
+      <c r="P20" s="17">
         <v>0.28961865094716999</v>
       </c>
-      <c r="Q20" s="26">
+      <c r="Q20" s="17">
         <v>0.30960418623410302</v>
       </c>
-      <c r="R20" s="26">
+      <c r="R20" s="17">
         <v>0.30521985638038701</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="17">
         <v>0.32280527027454198</v>
       </c>
-      <c r="T20" s="26">
+      <c r="T20" s="17">
         <v>0.27723505781150398</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30">
+      <c r="A21" s="39"/>
+      <c r="B21" s="18">
         <v>8</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="18">
         <v>0.39707207207207201</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="18">
         <v>0.45754119138149502</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="18">
         <v>0.488277858176555</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="18">
         <v>0.51351351351351304</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="18">
         <v>0.50669371196754498</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="18">
         <v>0.52506329113924</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="18">
         <v>0.54256756756756697</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="18">
         <v>0.56565656565656497</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="19">
         <v>0.55959595959595898</v>
       </c>
-      <c r="L21" s="26">
+      <c r="L21" s="17">
         <v>0.16892570095126599</v>
       </c>
-      <c r="M21" s="26">
+      <c r="M21" s="17">
         <v>0.21571405865902399</v>
       </c>
-      <c r="N21" s="26">
+      <c r="N21" s="17">
         <v>0.25211826743006699</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O21" s="17">
         <v>0.27249015359915002</v>
       </c>
-      <c r="P21" s="26">
+      <c r="P21" s="17">
         <v>0.28729522311646699</v>
       </c>
-      <c r="Q21" s="26">
+      <c r="Q21" s="17">
         <v>0.282698574855275</v>
       </c>
-      <c r="R21" s="26">
+      <c r="R21" s="17">
         <v>0.30728440738624302</v>
       </c>
-      <c r="S21" s="26">
+      <c r="S21" s="17">
         <v>0.31522074225644903</v>
       </c>
-      <c r="T21" s="26">
+      <c r="T21" s="17">
         <v>0.28574589264521599</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="26">
+      <c r="A22" s="39"/>
+      <c r="B22" s="17">
         <v>10</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="18">
         <v>0.35472972972972899</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="18">
         <v>0.42027883396704602</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="18">
         <v>0.42952243125904399</v>
       </c>
-      <c r="F22" s="30">
+      <c r="F22" s="18">
         <v>0.44391891891891799</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="18">
         <v>0.464503042596348</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="18">
         <v>0.46582278481012601</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="18">
         <v>0.47364864864864797</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="18">
         <v>0.45555555555555499</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K22" s="19">
         <v>0.45454545454545398</v>
       </c>
-      <c r="L22" s="26">
+      <c r="L22" s="17">
         <v>0.14083123866362501</v>
       </c>
-      <c r="M22" s="26">
+      <c r="M22" s="17">
         <v>0.194708344866551</v>
       </c>
-      <c r="N22" s="26">
+      <c r="N22" s="17">
         <v>0.20493258862941199</v>
       </c>
-      <c r="O22" s="26">
+      <c r="O22" s="17">
         <v>0.217093177042019</v>
       </c>
-      <c r="P22" s="26">
+      <c r="P22" s="17">
         <v>0.23400403596989899</v>
       </c>
-      <c r="Q22" s="26">
+      <c r="Q22" s="17">
         <v>0.236978136200583</v>
       </c>
-      <c r="R22" s="26">
+      <c r="R22" s="17">
         <v>0.25531707944082799</v>
       </c>
-      <c r="S22" s="26">
+      <c r="S22" s="17">
         <v>0.24200540329398801</v>
       </c>
-      <c r="T22" s="26">
+      <c r="T22" s="17">
         <v>0.20974558864029599</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="L1:T1"/>
     <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4959,297 +4962,297 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="29">
+      <c r="C1" s="39">
         <v>0.1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="41">
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="45">
         <v>0.3</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="41">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="45">
         <v>0.5</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="41">
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="45">
         <v>0.7</v>
       </c>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="29">
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="39">
         <v>0.9</v>
       </c>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="30" t="s">
+      <c r="U2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="Y2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="Z2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="20">
         <v>2</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="30">
+      <c r="A4" s="41"/>
+      <c r="B4" s="18">
         <v>4</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="30">
+      <c r="A5" s="41"/>
+      <c r="B5" s="18">
         <v>6</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="42"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="30">
+      <c r="A6" s="41"/>
+      <c r="B6" s="18">
         <v>8</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="37">
+      <c r="A7" s="42"/>
+      <c r="B7" s="22">
         <v>10</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="38"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22"/>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="20">
         <v>2</v>
       </c>
       <c r="C8" s="1">
@@ -5329,538 +5332,538 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30">
+      <c r="A9" s="39"/>
+      <c r="B9" s="18">
         <v>4</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="17">
         <v>0.75849999999999995</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="17">
         <v>0.80320000000000003</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="17">
         <v>0.70620000000000005</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="17">
         <v>0.7137</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="17">
         <v>0.82120000000000004</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="24">
         <v>0.71250000000000002</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="18">
         <v>0.77969999999999995</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="18">
         <v>0.73040000000000005</v>
       </c>
-      <c r="K9" s="30">
+      <c r="K9" s="18">
         <v>0.73839999999999995</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="19">
         <v>0.80100000000000005</v>
       </c>
-      <c r="M9" s="42">
+      <c r="M9" s="24">
         <v>0.7198</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="18">
         <v>0.78749999999999998</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="18">
         <v>0.7419</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="18">
         <v>0.74909999999999999</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="19">
         <v>0.80820000000000003</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="24">
         <v>0.76</v>
       </c>
-      <c r="S9" s="30">
+      <c r="S9" s="18">
         <v>0.81330000000000002</v>
       </c>
-      <c r="T9" s="30">
+      <c r="T9" s="18">
         <v>0.72529999999999994</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U9" s="18">
         <v>0.73199999999999998</v>
       </c>
-      <c r="V9" s="31">
+      <c r="V9" s="19">
         <v>0.83479999999999999</v>
       </c>
-      <c r="W9" s="26">
+      <c r="W9" s="17">
         <v>0.6583</v>
       </c>
-      <c r="X9" s="26">
+      <c r="X9" s="17">
         <v>0.80310000000000004</v>
       </c>
-      <c r="Y9" s="26">
+      <c r="Y9" s="17">
         <v>0.73060000000000003</v>
       </c>
-      <c r="Z9" s="26">
+      <c r="Z9" s="17">
         <v>0.73450000000000004</v>
       </c>
-      <c r="AA9" s="26">
+      <c r="AA9" s="17">
         <v>0.81710000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30">
+      <c r="A10" s="39"/>
+      <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="17">
         <v>0.67330000000000001</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="17">
         <v>0.71940000000000004</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="17">
         <v>0.64649999999999996</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="17">
         <v>0.65249999999999997</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="17">
         <v>0.746</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="24">
         <v>0.67820000000000003</v>
       </c>
-      <c r="I10" s="30">
+      <c r="I10" s="18">
         <v>0.7218</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="18">
         <v>0.63100000000000001</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="18">
         <v>0.63819999999999999</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="19">
         <v>0.74560000000000004</v>
       </c>
-      <c r="M10" s="42">
+      <c r="M10" s="24">
         <v>0.68969999999999998</v>
       </c>
-      <c r="N10" s="30">
+      <c r="N10" s="18">
         <v>0.7359</v>
       </c>
-      <c r="O10" s="30">
+      <c r="O10" s="18">
         <v>0.64370000000000005</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="18">
         <v>0.65159999999999996</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="19">
         <v>0.76070000000000004</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="24">
         <v>0.67530000000000001</v>
       </c>
-      <c r="S10" s="30">
+      <c r="S10" s="18">
         <v>0.74370000000000003</v>
       </c>
-      <c r="T10" s="30">
+      <c r="T10" s="18">
         <v>0.7077</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="18">
         <v>0.71440000000000003</v>
       </c>
-      <c r="V10" s="31">
+      <c r="V10" s="19">
         <v>0.76570000000000005</v>
       </c>
-      <c r="W10" s="26">
+      <c r="W10" s="17">
         <v>0.62060000000000004</v>
       </c>
-      <c r="X10" s="26">
+      <c r="X10" s="17">
         <v>0.76390000000000002</v>
       </c>
-      <c r="Y10" s="26">
+      <c r="Y10" s="17">
         <v>0.71530000000000005</v>
       </c>
-      <c r="Z10" s="26">
+      <c r="Z10" s="17">
         <v>0.7208</v>
       </c>
-      <c r="AA10" s="26">
+      <c r="AA10" s="17">
         <v>0.77839999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30">
+      <c r="A11" s="39"/>
+      <c r="B11" s="18">
         <v>8</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="17">
         <v>0.624</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="17">
         <v>0.68310000000000004</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="17">
         <v>0.5897</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="17">
         <v>0.59379999999999999</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="17">
         <v>0.70979999999999999</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="24">
         <v>0.64810000000000001</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="18">
         <v>0.6865</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="18">
         <v>0.61329999999999996</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="18">
         <v>0.61990000000000001</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="19">
         <v>0.70930000000000004</v>
       </c>
-      <c r="M11" s="42">
+      <c r="M11" s="24">
         <v>0.62690000000000001</v>
       </c>
-      <c r="N11" s="30">
+      <c r="N11" s="18">
         <v>0.68130000000000002</v>
       </c>
-      <c r="O11" s="30">
+      <c r="O11" s="18">
         <v>0.62709999999999999</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="18">
         <v>0.63419999999999999</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="19">
         <v>0.70830000000000004</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="24">
         <v>0.65900000000000003</v>
       </c>
-      <c r="S11" s="30">
+      <c r="S11" s="18">
         <v>0.70520000000000005</v>
       </c>
-      <c r="T11" s="30">
+      <c r="T11" s="18">
         <v>0.63649999999999995</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="18">
         <v>0.64390000000000003</v>
       </c>
-      <c r="V11" s="31">
+      <c r="V11" s="19">
         <v>0.73</v>
       </c>
-      <c r="W11" s="26">
+      <c r="W11" s="17">
         <v>0.63109999999999999</v>
       </c>
-      <c r="X11" s="26">
+      <c r="X11" s="17">
         <v>0.74280000000000002</v>
       </c>
-      <c r="Y11" s="26">
+      <c r="Y11" s="17">
         <v>0.67420000000000002</v>
       </c>
-      <c r="Z11" s="26">
+      <c r="Z11" s="17">
         <v>0.67949999999999999</v>
       </c>
-      <c r="AA11" s="26">
+      <c r="AA11" s="17">
         <v>0.75860000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="37">
+      <c r="A12" s="39"/>
+      <c r="B12" s="22">
         <v>10</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="17">
         <v>0.54010000000000002</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="17">
         <v>0.62619999999999998</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="17">
         <v>0.58930000000000005</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="17">
         <v>0.59609999999999996</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="17">
         <v>0.65839999999999999</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="24">
         <v>0.60060000000000002</v>
       </c>
-      <c r="I12" s="30">
+      <c r="I12" s="18">
         <v>0.65</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="18">
         <v>0.59389999999999998</v>
       </c>
-      <c r="K12" s="30">
+      <c r="K12" s="18">
         <v>0.60009999999999997</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="19">
         <v>0.6754</v>
       </c>
-      <c r="M12" s="42">
+      <c r="M12" s="24">
         <v>0.59519999999999995</v>
       </c>
-      <c r="N12" s="30">
+      <c r="N12" s="18">
         <v>0.65369999999999995</v>
       </c>
-      <c r="O12" s="30">
+      <c r="O12" s="18">
         <v>0.58650000000000002</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="18">
         <v>0.58989999999999998</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="19">
         <v>0.68059999999999998</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="24">
         <v>0.6119</v>
       </c>
-      <c r="S12" s="30">
+      <c r="S12" s="18">
         <v>0.66849999999999998</v>
       </c>
-      <c r="T12" s="30">
+      <c r="T12" s="18">
         <v>0.61580000000000001</v>
       </c>
-      <c r="U12" s="30">
+      <c r="U12" s="18">
         <v>0.62239999999999995</v>
       </c>
-      <c r="V12" s="31">
+      <c r="V12" s="19">
         <v>0.69479999999999997</v>
       </c>
-      <c r="W12" s="26">
+      <c r="W12" s="17">
         <v>0.63239999999999996</v>
       </c>
-      <c r="X12" s="26">
+      <c r="X12" s="17">
         <v>0.71540000000000004</v>
       </c>
-      <c r="Y12" s="26">
+      <c r="Y12" s="17">
         <v>0.66549999999999998</v>
       </c>
-      <c r="Z12" s="26">
+      <c r="Z12" s="17">
         <v>0.67100000000000004</v>
       </c>
-      <c r="AA12" s="26">
+      <c r="AA12" s="17">
         <v>0.73319999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="20">
         <v>2</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="20">
         <v>0.62680000000000002</v>
       </c>
       <c r="D13" s="10">
         <v>0.65510000000000002</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="20">
         <v>0.83730000000000004</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="20">
         <v>0.82720000000000005</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="20">
         <v>0.65610000000000002</v>
       </c>
-      <c r="H13" s="43">
+      <c r="H13" s="25">
         <v>0.62380000000000002</v>
       </c>
       <c r="I13" s="10">
         <v>0.63129999999999997</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="20">
         <v>0.77700000000000002</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="20">
         <v>0.77249999999999996</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="27">
         <v>0.62929999999999997</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="25">
         <v>0.57679999999999998</v>
       </c>
-      <c r="N13" s="33">
+      <c r="N13" s="20">
         <v>0.54239999999999999</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="20">
         <v>0.65849999999999997</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="20">
         <v>0.65749999999999997</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="21">
         <v>0.55589999999999995</v>
       </c>
-      <c r="R13" s="43"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="27"/>
-      <c r="B14" s="30">
+      <c r="A14" s="37"/>
+      <c r="B14" s="18">
         <v>4</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="18">
         <v>0.69840000000000002</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="18">
         <v>0.6411</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="18">
         <v>0.9032</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="18">
         <v>0.89939999999999998</v>
       </c>
       <c r="G14" s="8">
         <v>0.66249999999999998</v>
       </c>
-      <c r="H14" s="42">
+      <c r="H14" s="24">
         <v>0.64680000000000004</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="18">
         <v>0.62639999999999996</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="18">
         <v>0.84379999999999999</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="18">
         <v>0.8448</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="19">
         <v>0.61909999999999998</v>
       </c>
-      <c r="M14" s="42">
+      <c r="M14" s="24">
         <v>0.59760000000000002</v>
       </c>
       <c r="N14" s="8">
         <v>0.55010000000000003</v>
       </c>
-      <c r="O14" s="30">
+      <c r="O14" s="18">
         <v>0.71579999999999999</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="18">
         <v>0.71550000000000002</v>
       </c>
       <c r="Q14" s="9">
         <v>0.55640000000000001</v>
       </c>
-      <c r="R14" s="42"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="30">
+      <c r="A15" s="37"/>
+      <c r="B15" s="18">
         <v>6</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="18">
         <v>0.70630000000000004</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="18">
         <v>0.63349999999999995</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="18">
         <v>0.91120000000000001</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="18">
         <v>0.90959999999999996</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="18">
         <v>0.60709999999999997</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="24">
         <v>0.67500000000000004</v>
       </c>
-      <c r="I15" s="30">
+      <c r="I15" s="18">
         <v>0.60929999999999995</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="18">
         <v>0.86870000000000003</v>
       </c>
-      <c r="K15" s="30">
+      <c r="K15" s="18">
         <v>0.8679</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="19">
         <v>0.59089999999999998</v>
       </c>
-      <c r="M15" s="42">
+      <c r="M15" s="24">
         <v>0.61009999999999998</v>
       </c>
-      <c r="N15" s="30">
+      <c r="N15" s="18">
         <v>0.54359999999999997</v>
       </c>
-      <c r="O15" s="30">
+      <c r="O15" s="18">
         <v>0.72399999999999998</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="18">
         <v>0.72370000000000001</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="19">
         <v>0.54579999999999995</v>
       </c>
-      <c r="R15" s="42"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
-      <c r="B16" s="30">
+      <c r="A16" s="37"/>
+      <c r="B16" s="18">
         <v>8</v>
       </c>
-      <c r="C16" s="30">
+      <c r="C16" s="18">
         <v>0.74560000000000004</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="18">
         <v>0.61990000000000001</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="18">
         <v>0.91649999999999998</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="18">
         <v>0.91610000000000003</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="18">
         <v>0.60840000000000005</v>
       </c>
       <c r="H16" s="14">
         <v>0.70940000000000003</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="18">
         <v>0.60389999999999999</v>
       </c>
       <c r="J16" s="8">
@@ -5869,13 +5872,13 @@
       <c r="K16" s="8">
         <v>0.87380000000000002</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="19">
         <v>0.58579999999999999</v>
       </c>
       <c r="M16" s="14">
         <v>0.61660000000000004</v>
       </c>
-      <c r="N16" s="30">
+      <c r="N16" s="18">
         <v>0.53380000000000005</v>
       </c>
       <c r="O16" s="8">
@@ -5884,29 +5887,29 @@
       <c r="P16" s="8">
         <v>0.74150000000000005</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="19">
         <v>0.54239999999999999</v>
       </c>
-      <c r="R16" s="42"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="30"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="37">
+      <c r="A17" s="44"/>
+      <c r="B17" s="22">
         <v>10</v>
       </c>
       <c r="C17" s="11">
         <v>0.75190000000000001</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="22">
         <v>0.59989999999999999</v>
       </c>
       <c r="E17" s="11">
@@ -5915,58 +5918,58 @@
       <c r="F17" s="11">
         <v>0.9264</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="22">
         <v>0.59660000000000002</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="26">
         <v>0.7046</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="22">
         <v>0.58009999999999995</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="22">
         <v>0.87270000000000003</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="22">
         <v>0.87180000000000002</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="23">
         <v>0.58230000000000004</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="26">
         <v>0.61360000000000003</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="22">
         <v>0.53039999999999998</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="22">
         <v>0.73629999999999995</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="22">
         <v>0.73319999999999996</v>
       </c>
-      <c r="Q17" s="38">
+      <c r="Q17" s="23">
         <v>0.53129999999999999</v>
       </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="20">
         <v>2</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="17">
         <v>0.75719999999999998</v>
       </c>
       <c r="D18" s="1">
@@ -5981,7 +5984,7 @@
       <c r="G18" s="1">
         <v>0.84630000000000005</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="24">
         <v>0.75129999999999997</v>
       </c>
       <c r="I18" s="8">
@@ -5996,7 +5999,7 @@
       <c r="L18" s="9">
         <v>0.83909999999999996</v>
       </c>
-      <c r="M18" s="42">
+      <c r="M18" s="24">
         <v>0.72499999999999998</v>
       </c>
       <c r="N18" s="8">
@@ -6011,7 +6014,7 @@
       <c r="Q18" s="9">
         <v>0.84309999999999996</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="24">
         <v>0.73240000000000005</v>
       </c>
       <c r="S18" s="8">
@@ -6026,16 +6029,16 @@
       <c r="V18" s="9">
         <v>0.84179999999999999</v>
       </c>
-      <c r="W18" s="26">
+      <c r="W18" s="17">
         <v>0.61350000000000005</v>
       </c>
-      <c r="X18" s="26">
+      <c r="X18" s="17">
         <v>0.77990000000000004</v>
       </c>
-      <c r="Y18" s="26">
+      <c r="Y18" s="17">
         <v>0.70340000000000003</v>
       </c>
-      <c r="Z18" s="26">
+      <c r="Z18" s="17">
         <v>0.69420000000000004</v>
       </c>
       <c r="AA18" s="1">
@@ -6043,68 +6046,68 @@
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30">
+      <c r="A19" s="39"/>
+      <c r="B19" s="18">
         <v>4</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="17">
         <v>0.76959999999999995</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="17">
         <v>0.8034</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="17">
         <v>0.89810000000000001</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="17">
         <v>0.89939999999999998</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="17">
         <v>0.81079999999999997</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="24">
         <v>0.77259999999999995</v>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="18">
         <v>0.80189999999999995</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="18">
         <v>0.89319999999999999</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="18">
         <v>0.89159999999999995</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="19">
         <v>0.80789999999999995</v>
       </c>
-      <c r="M19" s="42">
+      <c r="M19" s="24">
         <v>0.74160000000000004</v>
       </c>
-      <c r="N19" s="30">
+      <c r="N19" s="18">
         <v>0.80510000000000004</v>
       </c>
-      <c r="O19" s="30">
+      <c r="O19" s="18">
         <v>0.88490000000000002</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="18">
         <v>0.87980000000000003</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="19">
         <v>0.80679999999999996</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="24">
         <v>0.74770000000000003</v>
       </c>
-      <c r="S19" s="30">
+      <c r="S19" s="18">
         <v>0.80730000000000002</v>
       </c>
-      <c r="T19" s="30">
+      <c r="T19" s="18">
         <v>0.86260000000000003</v>
       </c>
-      <c r="U19" s="30">
+      <c r="U19" s="18">
         <v>0.85919999999999996</v>
       </c>
-      <c r="V19" s="31">
+      <c r="V19" s="19">
         <v>0.80930000000000002</v>
       </c>
       <c r="W19" s="1">
@@ -6119,264 +6122,994 @@
       <c r="Z19" s="1">
         <v>0.76859999999999995</v>
       </c>
-      <c r="AA19" s="26">
+      <c r="AA19" s="17">
         <v>0.74960000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30">
+      <c r="A20" s="39"/>
+      <c r="B20" s="18">
         <v>6</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="17">
         <v>0.77600000000000002</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="17">
         <v>0.79220000000000002</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="17">
         <v>0.89259999999999995</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="17">
         <v>0.88590000000000002</v>
       </c>
-      <c r="G20" s="26">
+      <c r="G20" s="17">
         <v>0.79510000000000003</v>
       </c>
       <c r="H20" s="14">
         <v>0.78959999999999997</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="18">
         <v>0.78669999999999995</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="18">
         <v>0.87749999999999995</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="18">
         <v>0.87429999999999997</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="19">
         <v>0.79920000000000002</v>
       </c>
-      <c r="M20" s="42">
+      <c r="M20" s="24">
         <v>0.77949999999999997</v>
       </c>
-      <c r="N20" s="30">
+      <c r="N20" s="18">
         <v>0.79059999999999997</v>
       </c>
-      <c r="O20" s="30">
+      <c r="O20" s="18">
         <v>0.87480000000000002</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="18">
         <v>0.86470000000000002</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="19">
         <v>0.79700000000000004</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="24">
         <v>0.75890000000000002</v>
       </c>
-      <c r="S20" s="30">
+      <c r="S20" s="18">
         <v>0.78659999999999997</v>
       </c>
-      <c r="T20" s="30">
+      <c r="T20" s="18">
         <v>0.85119999999999996</v>
       </c>
-      <c r="U20" s="30">
+      <c r="U20" s="18">
         <v>0.84689999999999999</v>
       </c>
-      <c r="V20" s="31">
+      <c r="V20" s="19">
         <v>0.79139999999999999</v>
       </c>
-      <c r="W20" s="26">
+      <c r="W20" s="17">
         <v>0.65769999999999995</v>
       </c>
-      <c r="X20" s="26">
+      <c r="X20" s="17">
         <v>0.77569999999999995</v>
       </c>
-      <c r="Y20" s="26">
+      <c r="Y20" s="17">
         <v>0.76880000000000004</v>
       </c>
-      <c r="Z20" s="26">
+      <c r="Z20" s="17">
         <v>0.76739999999999997</v>
       </c>
-      <c r="AA20" s="26">
+      <c r="AA20" s="17">
         <v>0.74490000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30">
+      <c r="A21" s="39"/>
+      <c r="B21" s="18">
         <v>8</v>
       </c>
       <c r="C21" s="1">
         <v>0.78539999999999999</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="17">
         <v>0.7802</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="17">
         <v>0.87039999999999995</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F21" s="17">
         <v>0.8609</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="17">
         <v>0.7913</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="24">
         <v>0.77270000000000005</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="18">
         <v>0.77810000000000001</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="18">
         <v>0.85840000000000005</v>
       </c>
-      <c r="K21" s="30">
+      <c r="K21" s="18">
         <v>0.85370000000000001</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="19">
         <v>0.78969999999999996</v>
       </c>
       <c r="M21" s="14">
         <v>0.79100000000000004</v>
       </c>
-      <c r="N21" s="30">
+      <c r="N21" s="18">
         <v>0.77200000000000002</v>
       </c>
-      <c r="O21" s="30">
+      <c r="O21" s="18">
         <v>0.85960000000000003</v>
       </c>
-      <c r="P21" s="30">
+      <c r="P21" s="18">
         <v>0.85429999999999995</v>
       </c>
-      <c r="Q21" s="31">
+      <c r="Q21" s="19">
         <v>0.78049999999999997</v>
       </c>
       <c r="R21" s="14">
         <v>0.76259999999999994</v>
       </c>
-      <c r="S21" s="30">
+      <c r="S21" s="18">
         <v>0.78139999999999998</v>
       </c>
-      <c r="T21" s="30">
+      <c r="T21" s="18">
         <v>0.84770000000000001</v>
       </c>
-      <c r="U21" s="30">
+      <c r="U21" s="18">
         <v>0.84309999999999996</v>
       </c>
-      <c r="V21" s="31">
+      <c r="V21" s="19">
         <v>0.78620000000000001</v>
       </c>
-      <c r="W21" s="26">
+      <c r="W21" s="17">
         <v>0.64670000000000005</v>
       </c>
-      <c r="X21" s="26">
+      <c r="X21" s="17">
         <v>0.77329999999999999</v>
       </c>
-      <c r="Y21" s="26">
+      <c r="Y21" s="17">
         <v>0.75060000000000004</v>
       </c>
-      <c r="Z21" s="26">
+      <c r="Z21" s="17">
         <v>0.75019999999999998</v>
       </c>
-      <c r="AA21" s="26">
+      <c r="AA21" s="17">
         <v>0.74650000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30">
+      <c r="A22" s="39"/>
+      <c r="B22" s="18">
         <v>10</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="17">
         <v>0.77690000000000003</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="17">
         <v>0.76029999999999998</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="17">
         <v>0.84799999999999998</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="17">
         <v>0.8407</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="17">
         <v>0.77470000000000006</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="24">
         <v>0.78190000000000004</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="18">
         <v>0.75949999999999995</v>
       </c>
-      <c r="J22" s="30">
+      <c r="J22" s="18">
         <v>0.85399999999999998</v>
       </c>
-      <c r="K22" s="30">
+      <c r="K22" s="18">
         <v>0.84960000000000002</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="19">
         <v>0.76739999999999997</v>
       </c>
-      <c r="M22" s="42">
+      <c r="M22" s="24">
         <v>0.77569999999999995</v>
       </c>
-      <c r="N22" s="30">
+      <c r="N22" s="18">
         <v>0.77370000000000005</v>
       </c>
-      <c r="O22" s="30">
+      <c r="O22" s="18">
         <v>0.84570000000000001</v>
       </c>
-      <c r="P22" s="30">
+      <c r="P22" s="18">
         <v>0.84060000000000001</v>
       </c>
-      <c r="Q22" s="31">
+      <c r="Q22" s="19">
         <v>0.77990000000000004</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="24">
         <v>0.751</v>
       </c>
-      <c r="S22" s="30">
+      <c r="S22" s="18">
         <v>0.7712</v>
       </c>
-      <c r="T22" s="30">
+      <c r="T22" s="18">
         <v>0.83379999999999999</v>
       </c>
-      <c r="U22" s="30">
+      <c r="U22" s="18">
         <v>0.82940000000000003</v>
       </c>
-      <c r="V22" s="31">
+      <c r="V22" s="19">
         <v>0.77959999999999996</v>
       </c>
-      <c r="W22" s="26">
+      <c r="W22" s="17">
         <v>0.65680000000000005</v>
       </c>
-      <c r="X22" s="26">
+      <c r="X22" s="17">
         <v>0.7712</v>
       </c>
-      <c r="Y22" s="26">
+      <c r="Y22" s="17">
         <v>0.75249999999999995</v>
       </c>
-      <c r="Z22" s="26">
+      <c r="Z22" s="17">
         <v>0.75270000000000004</v>
       </c>
-      <c r="AA22" s="26">
+      <c r="AA22" s="17">
         <v>0.74150000000000005</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="A3:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A18:A22"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:AA1"/>
-    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD31782-69E3-4C08-9C77-AE7CDBF7055F}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9.7199558061338398E-2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>-9.3707280583714796E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.15141053462221299</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>0.23656515038221201</v>
+      </c>
+      <c r="E4">
+        <v>8.6861134898543801E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0.307874363191463</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>0.32834837202648098</v>
+      </c>
+      <c r="E5">
+        <v>0.50095095972120196</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89113DA6-3F90-4A7B-A9D9-0DE7100DFEE6}">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="E2" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0.6</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0.8</v>
+      </c>
+      <c r="J2" s="19">
+        <v>0.9</v>
+      </c>
+      <c r="K2" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="M2" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="N2" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="O2" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="P2" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="Q2" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="R2" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="S2" s="17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.193488872521414</v>
+      </c>
+      <c r="C4">
+        <v>0.238628440865541</v>
+      </c>
+      <c r="D4">
+        <v>0.26850956680202198</v>
+      </c>
+      <c r="E4">
+        <v>0.28223848233571203</v>
+      </c>
+      <c r="F4">
+        <v>0.29811535579232701</v>
+      </c>
+      <c r="G4">
+        <v>0.30582112177999599</v>
+      </c>
+      <c r="H4">
+        <v>0.313621026646006</v>
+      </c>
+      <c r="I4">
+        <v>0.318409093422095</v>
+      </c>
+      <c r="J4">
+        <v>0.31946257546148399</v>
+      </c>
+      <c r="K4">
+        <v>0.108001069156444</v>
+      </c>
+      <c r="L4">
+        <v>0.136982268654114</v>
+      </c>
+      <c r="M4">
+        <v>0.15497987691642101</v>
+      </c>
+      <c r="N4">
+        <v>0.16131484522304501</v>
+      </c>
+      <c r="O4">
+        <v>0.168721151166774</v>
+      </c>
+      <c r="P4">
+        <v>0.17317526781708001</v>
+      </c>
+      <c r="Q4">
+        <v>0.18157467379400999</v>
+      </c>
+      <c r="R4">
+        <v>0.17801156229113901</v>
+      </c>
+      <c r="S4">
+        <v>0.18371785134524399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.37353598569512703</v>
+      </c>
+      <c r="C5">
+        <v>0.40251509054325901</v>
+      </c>
+      <c r="D5">
+        <v>0.447816091954022</v>
+      </c>
+      <c r="E5">
+        <v>0.47350771294433203</v>
+      </c>
+      <c r="F5">
+        <v>0.47385358004827</v>
+      </c>
+      <c r="G5">
+        <v>0.49657947686116699</v>
+      </c>
+      <c r="H5">
+        <v>0.49142091152814998</v>
+      </c>
+      <c r="I5">
+        <v>0.49698189134808801</v>
+      </c>
+      <c r="J5">
+        <v>0.52289156626505995</v>
+      </c>
+      <c r="K5">
+        <v>0.33167375154631801</v>
+      </c>
+      <c r="L5">
+        <v>0.36843464682213101</v>
+      </c>
+      <c r="M5">
+        <v>0.41350141774308102</v>
+      </c>
+      <c r="N5">
+        <v>0.44128604601426702</v>
+      </c>
+      <c r="O5">
+        <v>0.444237678100255</v>
+      </c>
+      <c r="P5">
+        <v>0.468504369133181</v>
+      </c>
+      <c r="Q5">
+        <v>0.46100975629202301</v>
+      </c>
+      <c r="R5">
+        <v>0.47562501758705</v>
+      </c>
+      <c r="S5">
+        <v>0.48865169145328202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.38220720720720702</v>
+      </c>
+      <c r="C6">
+        <v>0.480608365019011</v>
+      </c>
+      <c r="D6">
+        <v>0.51432706222865399</v>
+      </c>
+      <c r="E6">
+        <v>0.53581081081080995</v>
+      </c>
+      <c r="F6">
+        <v>0.54685598377281897</v>
+      </c>
+      <c r="G6">
+        <v>0.556962025316455</v>
+      </c>
+      <c r="H6">
+        <v>0.56554054054054004</v>
+      </c>
+      <c r="I6">
+        <v>0.57676767676767604</v>
+      </c>
+      <c r="J6">
+        <v>0.61818181818181805</v>
+      </c>
+      <c r="K6">
+        <v>0.189220805288244</v>
+      </c>
+      <c r="L6">
+        <v>0.288049580171303</v>
+      </c>
+      <c r="M6">
+        <v>0.304340700075383</v>
+      </c>
+      <c r="N6">
+        <v>0.33192494710495801</v>
+      </c>
+      <c r="O6">
+        <v>0.34417359441982598</v>
+      </c>
+      <c r="P6">
+        <v>0.38060259759696602</v>
+      </c>
+      <c r="Q6">
+        <v>0.37511753764578898</v>
+      </c>
+      <c r="R6">
+        <v>0.37266211692387002</v>
+      </c>
+      <c r="S6">
+        <v>0.37589652852921301</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:S1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D989CB-942E-4E03-BFB8-0BED5B131E23}">
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="39">
+        <v>0.1</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="45">
+        <v>0.3</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="45">
+        <v>0.7</v>
+      </c>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="39">
+        <v>0.9</v>
+      </c>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="C4">
+        <v>0.94040000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.93659999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.93859999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.95620000000000005</v>
+      </c>
+      <c r="G4">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="H4">
+        <v>0.93940000000000001</v>
+      </c>
+      <c r="I4">
+        <v>0.9294</v>
+      </c>
+      <c r="J4">
+        <v>0.93279999999999996</v>
+      </c>
+      <c r="K4">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="L4">
+        <v>0.92920000000000003</v>
+      </c>
+      <c r="M4">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="O4">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="P4">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="Q4">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="R4">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="S4">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="T4">
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="U4">
+        <v>0.9526</v>
+      </c>
+      <c r="V4">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="W4">
+        <v>0.9173</v>
+      </c>
+      <c r="X4">
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="Y4">
+        <v>0.56679999999999997</v>
+      </c>
+      <c r="Z4">
+        <v>0.92859999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.6361</v>
+      </c>
+      <c r="D5">
+        <v>0.68279999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.67169999999999996</v>
+      </c>
+      <c r="F5">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="G5">
+        <v>0.6139</v>
+      </c>
+      <c r="H5">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="I5">
+        <v>0.58409999999999995</v>
+      </c>
+      <c r="J5">
+        <v>0.56840000000000002</v>
+      </c>
+      <c r="K5">
+        <v>0.58660000000000001</v>
+      </c>
+      <c r="L5">
+        <v>0.497</v>
+      </c>
+      <c r="M5">
+        <v>0.54969999999999997</v>
+      </c>
+      <c r="N5">
+        <v>0.5081</v>
+      </c>
+      <c r="O5">
+        <v>0.49890000000000001</v>
+      </c>
+      <c r="P5">
+        <v>0.56869999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.76619999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="E6">
+        <v>0.89370000000000005</v>
+      </c>
+      <c r="F6">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.75270000000000004</v>
+      </c>
+      <c r="H6">
+        <v>0.8478</v>
+      </c>
+      <c r="I6">
+        <v>0.86639999999999995</v>
+      </c>
+      <c r="J6">
+        <v>0.8569</v>
+      </c>
+      <c r="K6">
+        <v>0.84889999999999999</v>
+      </c>
+      <c r="L6">
+        <v>0.74380000000000002</v>
+      </c>
+      <c r="M6">
+        <v>0.84470000000000001</v>
+      </c>
+      <c r="N6">
+        <v>0.81320000000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="P6">
+        <v>0.84370000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.73650000000000004</v>
+      </c>
+      <c r="R6">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="S6">
+        <v>0.72589999999999999</v>
+      </c>
+      <c r="T6">
+        <v>0.71389999999999998</v>
+      </c>
+      <c r="U6">
+        <v>0.81950000000000001</v>
+      </c>
+      <c r="V6">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="W6">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="X6">
+        <v>0.56810000000000005</v>
+      </c>
+      <c r="Y6">
+        <v>0.56369999999999998</v>
+      </c>
+      <c r="Z6">
+        <v>0.71079999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
